--- a/data/trans_bre/P07_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P07_R2-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-17.40682785759541</v>
+        <v>-17.18185613072096</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-14.41855703673614</v>
+        <v>-13.35743413405839</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-15.11621707247497</v>
+        <v>-15.25028674952944</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-8.434005442584173</v>
+        <v>-8.197859879013082</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2061889242790499</v>
+        <v>-0.2027214044587429</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1717377646485648</v>
+        <v>-0.1600560491405873</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1775706136105833</v>
+        <v>-0.179375890132883</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1062633689360777</v>
+        <v>-0.1031485781171031</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-8.395681380412347</v>
+        <v>-8.110343711892973</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-4.757345650299908</v>
+        <v>-4.429879171586132</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-6.128307035229767</v>
+        <v>-6.170153128429019</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.2459657961165542</v>
+        <v>-0.04662591417026657</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.1032607984358459</v>
+        <v>-0.1001850444927807</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.05970689694571677</v>
+        <v>-0.05617569043828072</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.07494428694122993</v>
+        <v>-0.07604013256920998</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.003665540259485907</v>
+        <v>-0.0006332448184330631</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-20.20815822328542</v>
+        <v>-19.86816835768557</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-13.41514683801437</v>
+        <v>-13.70550228475423</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-12.09603578287193</v>
+        <v>-12.10722097506213</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-13.08032642397325</v>
+        <v>-13.10379642653137</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2349358936406307</v>
+        <v>-0.2317740308969129</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1587498855173279</v>
+        <v>-0.1627212167493653</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1424850171783013</v>
+        <v>-0.1406006859446591</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.151079901537371</v>
+        <v>-0.1505113723802662</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-12.21881181794309</v>
+        <v>-12.06906554087016</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-5.787774907014801</v>
+        <v>-6.116911268155385</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-4.801597516821658</v>
+        <v>-5.198403773183085</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-7.03996047525226</v>
+        <v>-6.647418603242955</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1474137448757034</v>
+        <v>-0.1460728274363453</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.07013298345746849</v>
+        <v>-0.07563959127501835</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.05873635795678213</v>
+        <v>-0.06245858795042827</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.08501324628076073</v>
+        <v>-0.08036377506888201</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-14.81138293867495</v>
+        <v>-14.97375119561077</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-15.98391699534304</v>
+        <v>-15.91944360961402</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-10.71011675134466</v>
+        <v>-10.20683708926652</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-9.697732037694189</v>
+        <v>-9.470858154247646</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.172377211675155</v>
+        <v>-0.1736195270591103</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1878679162915471</v>
+        <v>-0.1847900002640145</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1237987509918078</v>
+        <v>-0.1200446869972224</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1096982292612648</v>
+        <v>-0.1082612492610563</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-6.204278282860662</v>
+        <v>-5.680086457753972</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-6.52668352177348</v>
+        <v>-6.942471329901233</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-2.395482760153781</v>
+        <v>-2.055351238755613</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-2.503608668321986</v>
+        <v>-2.359817683157383</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.0751425718535364</v>
+        <v>-0.06895742255836645</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.07970151046180389</v>
+        <v>-0.08433668067640114</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.02957461083013683</v>
+        <v>-0.02537405594470969</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.02912589043989037</v>
+        <v>-0.02823781228151939</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-7.938644829631746</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-6.040267064744176</v>
+        <v>-6.040267064744187</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.1397791476993182</v>
@@ -949,7 +949,7 @@
         <v>-0.09346321045042294</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.07434459343123952</v>
+        <v>-0.07434459343123966</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-15.1923988396293</v>
+        <v>-15.4309801777054</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-13.31357637555273</v>
+        <v>-13.58165058050223</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-11.77421765988147</v>
+        <v>-11.67862108475985</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-9.36091721823081</v>
+        <v>-8.901008348382472</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1753750502367095</v>
+        <v>-0.1777252869897837</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1544735344095541</v>
+        <v>-0.1565766424383508</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1350314075822</v>
+        <v>-0.1362304739782302</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.111988707628085</v>
+        <v>-0.1069392267355845</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-8.309551362683013</v>
+        <v>-8.287090902349812</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-5.937534962886644</v>
+        <v>-6.339101377698057</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-4.488836271614927</v>
+        <v>-4.706685488636274</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-2.719574674146513</v>
+        <v>-2.386391383737913</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.09795187314682573</v>
+        <v>-0.09843127992837333</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.07177608390948252</v>
+        <v>-0.07644039621028186</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.05403947962493991</v>
+        <v>-0.05619442169426605</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.03460829708208811</v>
+        <v>-0.0303569375283992</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-8.182353356095151</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-6.96413736783218</v>
+        <v>-6.964137367832191</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.1540315089148565</v>
@@ -1049,7 +1049,7 @@
         <v>-0.09705725072678237</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.08426432094746684</v>
+        <v>-0.08426432094746697</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-14.87898818551388</v>
+        <v>-15.20256152123598</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-12.07900562218968</v>
+        <v>-12.0332238058413</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-10.16616407073085</v>
+        <v>-10.08648549481464</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-8.487459508352959</v>
+        <v>-8.745911252242342</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1745541370753965</v>
+        <v>-0.1780882244553276</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1429494407417076</v>
+        <v>-0.1435700593115226</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1189785501997134</v>
+        <v>-0.1187732877760113</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1018277331425197</v>
+        <v>-0.1044652728403583</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-10.9779696096485</v>
+        <v>-11.08851145908402</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-8.011441498323336</v>
+        <v>-8.267382033490584</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-6.152791713852589</v>
+        <v>-6.222537492970813</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-5.119903582849532</v>
+        <v>-5.155744872896757</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.1305211691896555</v>
+        <v>-0.1324333814940563</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.09701810957738069</v>
+        <v>-0.09995844904498496</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.07322180264044766</v>
+        <v>-0.07455849614754972</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.06284841027807943</v>
+        <v>-0.06254364100451119</v>
       </c>
     </row>
     <row r="19">
